--- a/application/flaskProject/data/data.xlsx
+++ b/application/flaskProject/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\asus\SFSU\Semester-2\csc648-04-sp24-team-04\application\flaskProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A68FF79-2B6F-4D22-80EC-253BB2A3523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B359E-B4EB-4375-BE90-CDF08F71CC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-915" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="26">
   <si>
     <t>participantName</t>
   </si>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254:B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,6 +1852,6096 @@
         <v>24</v>
       </c>
     </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>294</v>
+      </c>
+      <c r="E44">
+        <v>165</v>
+      </c>
+      <c r="F44">
+        <v>57</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>231</v>
+      </c>
+      <c r="J44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>341</v>
+      </c>
+      <c r="E45">
+        <v>55</v>
+      </c>
+      <c r="F45">
+        <v>55</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>167</v>
+      </c>
+      <c r="J45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>577</v>
+      </c>
+      <c r="E46">
+        <v>103</v>
+      </c>
+      <c r="F46">
+        <v>74</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>284</v>
+      </c>
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>158</v>
+      </c>
+      <c r="E47">
+        <v>61</v>
+      </c>
+      <c r="F47">
+        <v>78</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>21</v>
+      </c>
+      <c r="I47">
+        <v>214</v>
+      </c>
+      <c r="J47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>370</v>
+      </c>
+      <c r="E48">
+        <v>168</v>
+      </c>
+      <c r="F48">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>28</v>
+      </c>
+      <c r="I48">
+        <v>254</v>
+      </c>
+      <c r="J48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>514</v>
+      </c>
+      <c r="E49">
+        <v>24</v>
+      </c>
+      <c r="F49">
+        <v>62</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <v>211</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>213</v>
+      </c>
+      <c r="E50">
+        <v>138</v>
+      </c>
+      <c r="F50">
+        <v>61</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>293</v>
+      </c>
+      <c r="J50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>482</v>
+      </c>
+      <c r="E51">
+        <v>56</v>
+      </c>
+      <c r="F51">
+        <v>26</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
+        <v>192</v>
+      </c>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>561</v>
+      </c>
+      <c r="E52">
+        <v>123</v>
+      </c>
+      <c r="F52">
+        <v>70</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>30</v>
+      </c>
+      <c r="I52">
+        <v>300</v>
+      </c>
+      <c r="J52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>211</v>
+      </c>
+      <c r="E53">
+        <v>137</v>
+      </c>
+      <c r="F53">
+        <v>53</v>
+      </c>
+      <c r="G53">
+        <v>8</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>223</v>
+      </c>
+      <c r="J53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>498</v>
+      </c>
+      <c r="E54">
+        <v>64</v>
+      </c>
+      <c r="F54">
+        <v>26</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>300</v>
+      </c>
+      <c r="J54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>513</v>
+      </c>
+      <c r="E55">
+        <v>145</v>
+      </c>
+      <c r="F55">
+        <v>46</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>15</v>
+      </c>
+      <c r="I55">
+        <v>186</v>
+      </c>
+      <c r="J55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>290</v>
+      </c>
+      <c r="E56">
+        <v>176</v>
+      </c>
+      <c r="F56">
+        <v>29</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>21</v>
+      </c>
+      <c r="I56">
+        <v>234</v>
+      </c>
+      <c r="J56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>438</v>
+      </c>
+      <c r="E57">
+        <v>156</v>
+      </c>
+      <c r="F57">
+        <v>79</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>28</v>
+      </c>
+      <c r="I57">
+        <v>262</v>
+      </c>
+      <c r="J57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>502</v>
+      </c>
+      <c r="E58">
+        <v>122</v>
+      </c>
+      <c r="F58">
+        <v>68</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>16</v>
+      </c>
+      <c r="I58">
+        <v>271</v>
+      </c>
+      <c r="J58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>217</v>
+      </c>
+      <c r="E59">
+        <v>145</v>
+      </c>
+      <c r="F59">
+        <v>32</v>
+      </c>
+      <c r="G59">
+        <v>8</v>
+      </c>
+      <c r="H59">
+        <v>29</v>
+      </c>
+      <c r="I59">
+        <v>233</v>
+      </c>
+      <c r="J59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>370</v>
+      </c>
+      <c r="E60">
+        <v>64</v>
+      </c>
+      <c r="F60">
+        <v>23</v>
+      </c>
+      <c r="G60">
+        <v>9</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>179</v>
+      </c>
+      <c r="J60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>564</v>
+      </c>
+      <c r="E61">
+        <v>24</v>
+      </c>
+      <c r="F61">
+        <v>61</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>27</v>
+      </c>
+      <c r="I61">
+        <v>179</v>
+      </c>
+      <c r="J61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>271</v>
+      </c>
+      <c r="E62">
+        <v>144</v>
+      </c>
+      <c r="F62">
+        <v>54</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>13</v>
+      </c>
+      <c r="I62">
+        <v>261</v>
+      </c>
+      <c r="J62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>369</v>
+      </c>
+      <c r="E63">
+        <v>49</v>
+      </c>
+      <c r="F63">
+        <v>53</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>21</v>
+      </c>
+      <c r="I63">
+        <v>170</v>
+      </c>
+      <c r="J63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>501</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>34</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>12</v>
+      </c>
+      <c r="I64">
+        <v>200</v>
+      </c>
+      <c r="J64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>233</v>
+      </c>
+      <c r="E65">
+        <v>63</v>
+      </c>
+      <c r="F65">
+        <v>61</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>218</v>
+      </c>
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>451</v>
+      </c>
+      <c r="E66">
+        <v>49</v>
+      </c>
+      <c r="F66">
+        <v>64</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>153</v>
+      </c>
+      <c r="J66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>584</v>
+      </c>
+      <c r="E67">
+        <v>35</v>
+      </c>
+      <c r="F67">
+        <v>67</v>
+      </c>
+      <c r="G67">
+        <v>9</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>209</v>
+      </c>
+      <c r="J67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>177</v>
+      </c>
+      <c r="E68">
+        <v>144</v>
+      </c>
+      <c r="F68">
+        <v>29</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>175</v>
+      </c>
+      <c r="J68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>360</v>
+      </c>
+      <c r="E69">
+        <v>126</v>
+      </c>
+      <c r="F69">
+        <v>42</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>27</v>
+      </c>
+      <c r="I69">
+        <v>247</v>
+      </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>522</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>61</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>30</v>
+      </c>
+      <c r="I70">
+        <v>250</v>
+      </c>
+      <c r="J70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>134</v>
+      </c>
+      <c r="E71">
+        <v>104</v>
+      </c>
+      <c r="F71">
+        <v>61</v>
+      </c>
+      <c r="G71">
+        <v>7</v>
+      </c>
+      <c r="H71">
+        <v>25</v>
+      </c>
+      <c r="I71">
+        <v>171</v>
+      </c>
+      <c r="J71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>492</v>
+      </c>
+      <c r="E72">
+        <v>159</v>
+      </c>
+      <c r="F72">
+        <v>61</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+      <c r="H72">
+        <v>28</v>
+      </c>
+      <c r="I72">
+        <v>174</v>
+      </c>
+      <c r="J72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>572</v>
+      </c>
+      <c r="E73">
+        <v>48</v>
+      </c>
+      <c r="F73">
+        <v>65</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>28</v>
+      </c>
+      <c r="I73">
+        <v>151</v>
+      </c>
+      <c r="J73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>156</v>
+      </c>
+      <c r="E74">
+        <v>113</v>
+      </c>
+      <c r="F74">
+        <v>22</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74">
+        <v>28</v>
+      </c>
+      <c r="I74">
+        <v>175</v>
+      </c>
+      <c r="J74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>310</v>
+      </c>
+      <c r="E75">
+        <v>37</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>185</v>
+      </c>
+      <c r="J75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>552</v>
+      </c>
+      <c r="E76">
+        <v>140</v>
+      </c>
+      <c r="F76">
+        <v>54</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+      <c r="H76">
+        <v>15</v>
+      </c>
+      <c r="I76">
+        <v>154</v>
+      </c>
+      <c r="J76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>140</v>
+      </c>
+      <c r="E77">
+        <v>136</v>
+      </c>
+      <c r="F77">
+        <v>80</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>206</v>
+      </c>
+      <c r="J77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>362</v>
+      </c>
+      <c r="E78">
+        <v>108</v>
+      </c>
+      <c r="F78">
+        <v>46</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>263</v>
+      </c>
+      <c r="J78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>569</v>
+      </c>
+      <c r="E79">
+        <v>124</v>
+      </c>
+      <c r="F79">
+        <v>75</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+      <c r="H79">
+        <v>28</v>
+      </c>
+      <c r="I79">
+        <v>298</v>
+      </c>
+      <c r="J79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>137</v>
+      </c>
+      <c r="E80">
+        <v>73</v>
+      </c>
+      <c r="F80">
+        <v>79</v>
+      </c>
+      <c r="G80">
+        <v>7</v>
+      </c>
+      <c r="H80">
+        <v>7</v>
+      </c>
+      <c r="I80">
+        <v>195</v>
+      </c>
+      <c r="J80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>328</v>
+      </c>
+      <c r="E81">
+        <v>17</v>
+      </c>
+      <c r="F81">
+        <v>46</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>17</v>
+      </c>
+      <c r="I81">
+        <v>253</v>
+      </c>
+      <c r="J81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>519</v>
+      </c>
+      <c r="E82">
+        <v>110</v>
+      </c>
+      <c r="F82">
+        <v>24</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>24</v>
+      </c>
+      <c r="I82">
+        <v>271</v>
+      </c>
+      <c r="J82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>250</v>
+      </c>
+      <c r="E83">
+        <v>92</v>
+      </c>
+      <c r="F83">
+        <v>31</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>26</v>
+      </c>
+      <c r="I83">
+        <v>212</v>
+      </c>
+      <c r="J83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>350</v>
+      </c>
+      <c r="E84">
+        <v>25</v>
+      </c>
+      <c r="F84">
+        <v>69</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+      <c r="H84">
+        <v>16</v>
+      </c>
+      <c r="I84">
+        <v>238</v>
+      </c>
+      <c r="J84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>538</v>
+      </c>
+      <c r="E85">
+        <v>69</v>
+      </c>
+      <c r="F85">
+        <v>42</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>24</v>
+      </c>
+      <c r="I85">
+        <v>254</v>
+      </c>
+      <c r="J85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>294</v>
+      </c>
+      <c r="E86">
+        <v>165</v>
+      </c>
+      <c r="F86">
+        <v>57</v>
+      </c>
+      <c r="G86">
+        <v>9</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>231</v>
+      </c>
+      <c r="J86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>341</v>
+      </c>
+      <c r="E87">
+        <v>55</v>
+      </c>
+      <c r="F87">
+        <v>55</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>10</v>
+      </c>
+      <c r="I87">
+        <v>167</v>
+      </c>
+      <c r="J87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>577</v>
+      </c>
+      <c r="E88">
+        <v>103</v>
+      </c>
+      <c r="F88">
+        <v>74</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>284</v>
+      </c>
+      <c r="J88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>14</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>158</v>
+      </c>
+      <c r="E89">
+        <v>61</v>
+      </c>
+      <c r="F89">
+        <v>78</v>
+      </c>
+      <c r="G89">
+        <v>8</v>
+      </c>
+      <c r="H89">
+        <v>21</v>
+      </c>
+      <c r="I89">
+        <v>214</v>
+      </c>
+      <c r="J89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>370</v>
+      </c>
+      <c r="E90">
+        <v>168</v>
+      </c>
+      <c r="F90">
+        <v>32</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+      <c r="H90">
+        <v>28</v>
+      </c>
+      <c r="I90">
+        <v>254</v>
+      </c>
+      <c r="J90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>14</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>514</v>
+      </c>
+      <c r="E91">
+        <v>24</v>
+      </c>
+      <c r="F91">
+        <v>62</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>15</v>
+      </c>
+      <c r="I91">
+        <v>211</v>
+      </c>
+      <c r="J91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>15</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>213</v>
+      </c>
+      <c r="E92">
+        <v>138</v>
+      </c>
+      <c r="F92">
+        <v>61</v>
+      </c>
+      <c r="G92">
+        <v>6</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>293</v>
+      </c>
+      <c r="J92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>482</v>
+      </c>
+      <c r="E93">
+        <v>56</v>
+      </c>
+      <c r="F93">
+        <v>26</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>192</v>
+      </c>
+      <c r="J93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>15</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>561</v>
+      </c>
+      <c r="E94">
+        <v>123</v>
+      </c>
+      <c r="F94">
+        <v>70</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>30</v>
+      </c>
+      <c r="I94">
+        <v>300</v>
+      </c>
+      <c r="J94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>16</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>211</v>
+      </c>
+      <c r="E95">
+        <v>137</v>
+      </c>
+      <c r="F95">
+        <v>53</v>
+      </c>
+      <c r="G95">
+        <v>8</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
+        <v>223</v>
+      </c>
+      <c r="J95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>16</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>498</v>
+      </c>
+      <c r="E96">
+        <v>64</v>
+      </c>
+      <c r="F96">
+        <v>26</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+      <c r="H96">
+        <v>7</v>
+      </c>
+      <c r="I96">
+        <v>300</v>
+      </c>
+      <c r="J96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>513</v>
+      </c>
+      <c r="E97">
+        <v>145</v>
+      </c>
+      <c r="F97">
+        <v>46</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>15</v>
+      </c>
+      <c r="I97">
+        <v>186</v>
+      </c>
+      <c r="J97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>290</v>
+      </c>
+      <c r="E98">
+        <v>176</v>
+      </c>
+      <c r="F98">
+        <v>29</v>
+      </c>
+      <c r="G98">
+        <v>6</v>
+      </c>
+      <c r="H98">
+        <v>21</v>
+      </c>
+      <c r="I98">
+        <v>234</v>
+      </c>
+      <c r="J98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>438</v>
+      </c>
+      <c r="E99">
+        <v>156</v>
+      </c>
+      <c r="F99">
+        <v>79</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <v>28</v>
+      </c>
+      <c r="I99">
+        <v>262</v>
+      </c>
+      <c r="J99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>502</v>
+      </c>
+      <c r="E100">
+        <v>122</v>
+      </c>
+      <c r="F100">
+        <v>68</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
+      <c r="H100">
+        <v>16</v>
+      </c>
+      <c r="I100">
+        <v>271</v>
+      </c>
+      <c r="J100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>217</v>
+      </c>
+      <c r="E101">
+        <v>145</v>
+      </c>
+      <c r="F101">
+        <v>32</v>
+      </c>
+      <c r="G101">
+        <v>8</v>
+      </c>
+      <c r="H101">
+        <v>29</v>
+      </c>
+      <c r="I101">
+        <v>233</v>
+      </c>
+      <c r="J101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>370</v>
+      </c>
+      <c r="E102">
+        <v>64</v>
+      </c>
+      <c r="F102">
+        <v>23</v>
+      </c>
+      <c r="G102">
+        <v>9</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>179</v>
+      </c>
+      <c r="J102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>564</v>
+      </c>
+      <c r="E103">
+        <v>24</v>
+      </c>
+      <c r="F103">
+        <v>61</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>27</v>
+      </c>
+      <c r="I103">
+        <v>179</v>
+      </c>
+      <c r="J103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>271</v>
+      </c>
+      <c r="E104">
+        <v>144</v>
+      </c>
+      <c r="F104">
+        <v>54</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>13</v>
+      </c>
+      <c r="I104">
+        <v>261</v>
+      </c>
+      <c r="J104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>369</v>
+      </c>
+      <c r="E105">
+        <v>49</v>
+      </c>
+      <c r="F105">
+        <v>53</v>
+      </c>
+      <c r="G105">
+        <v>6</v>
+      </c>
+      <c r="H105">
+        <v>21</v>
+      </c>
+      <c r="I105">
+        <v>170</v>
+      </c>
+      <c r="J105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>501</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>34</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>12</v>
+      </c>
+      <c r="I106">
+        <v>200</v>
+      </c>
+      <c r="J106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>233</v>
+      </c>
+      <c r="E107">
+        <v>63</v>
+      </c>
+      <c r="F107">
+        <v>61</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="I107">
+        <v>218</v>
+      </c>
+      <c r="J107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>451</v>
+      </c>
+      <c r="E108">
+        <v>49</v>
+      </c>
+      <c r="F108">
+        <v>64</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>153</v>
+      </c>
+      <c r="J108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>584</v>
+      </c>
+      <c r="E109">
+        <v>35</v>
+      </c>
+      <c r="F109">
+        <v>67</v>
+      </c>
+      <c r="G109">
+        <v>9</v>
+      </c>
+      <c r="H109">
+        <v>8</v>
+      </c>
+      <c r="I109">
+        <v>209</v>
+      </c>
+      <c r="J109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>177</v>
+      </c>
+      <c r="E110">
+        <v>144</v>
+      </c>
+      <c r="F110">
+        <v>29</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110">
+        <v>4</v>
+      </c>
+      <c r="I110">
+        <v>175</v>
+      </c>
+      <c r="J110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>360</v>
+      </c>
+      <c r="E111">
+        <v>126</v>
+      </c>
+      <c r="F111">
+        <v>42</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>27</v>
+      </c>
+      <c r="I111">
+        <v>247</v>
+      </c>
+      <c r="J111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>522</v>
+      </c>
+      <c r="E112">
+        <v>12</v>
+      </c>
+      <c r="F112">
+        <v>61</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>30</v>
+      </c>
+      <c r="I112">
+        <v>250</v>
+      </c>
+      <c r="J112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>134</v>
+      </c>
+      <c r="E113">
+        <v>104</v>
+      </c>
+      <c r="F113">
+        <v>61</v>
+      </c>
+      <c r="G113">
+        <v>7</v>
+      </c>
+      <c r="H113">
+        <v>25</v>
+      </c>
+      <c r="I113">
+        <v>171</v>
+      </c>
+      <c r="J113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>492</v>
+      </c>
+      <c r="E114">
+        <v>159</v>
+      </c>
+      <c r="F114">
+        <v>61</v>
+      </c>
+      <c r="G114">
+        <v>4</v>
+      </c>
+      <c r="H114">
+        <v>28</v>
+      </c>
+      <c r="I114">
+        <v>174</v>
+      </c>
+      <c r="J114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>572</v>
+      </c>
+      <c r="E115">
+        <v>48</v>
+      </c>
+      <c r="F115">
+        <v>65</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115">
+        <v>28</v>
+      </c>
+      <c r="I115">
+        <v>151</v>
+      </c>
+      <c r="J115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>156</v>
+      </c>
+      <c r="E116">
+        <v>113</v>
+      </c>
+      <c r="F116">
+        <v>22</v>
+      </c>
+      <c r="G116">
+        <v>8</v>
+      </c>
+      <c r="H116">
+        <v>28</v>
+      </c>
+      <c r="I116">
+        <v>175</v>
+      </c>
+      <c r="J116" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>310</v>
+      </c>
+      <c r="E117">
+        <v>37</v>
+      </c>
+      <c r="F117">
+        <v>30</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>185</v>
+      </c>
+      <c r="J117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>552</v>
+      </c>
+      <c r="E118">
+        <v>140</v>
+      </c>
+      <c r="F118">
+        <v>54</v>
+      </c>
+      <c r="G118">
+        <v>10</v>
+      </c>
+      <c r="H118">
+        <v>15</v>
+      </c>
+      <c r="I118">
+        <v>154</v>
+      </c>
+      <c r="J118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>140</v>
+      </c>
+      <c r="E119">
+        <v>136</v>
+      </c>
+      <c r="F119">
+        <v>80</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
+      <c r="H119">
+        <v>4</v>
+      </c>
+      <c r="I119">
+        <v>206</v>
+      </c>
+      <c r="J119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>362</v>
+      </c>
+      <c r="E120">
+        <v>108</v>
+      </c>
+      <c r="F120">
+        <v>46</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+      <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="I120">
+        <v>263</v>
+      </c>
+      <c r="J120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>569</v>
+      </c>
+      <c r="E121">
+        <v>124</v>
+      </c>
+      <c r="F121">
+        <v>75</v>
+      </c>
+      <c r="G121">
+        <v>6</v>
+      </c>
+      <c r="H121">
+        <v>28</v>
+      </c>
+      <c r="I121">
+        <v>298</v>
+      </c>
+      <c r="J121" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>137</v>
+      </c>
+      <c r="E122">
+        <v>73</v>
+      </c>
+      <c r="F122">
+        <v>79</v>
+      </c>
+      <c r="G122">
+        <v>7</v>
+      </c>
+      <c r="H122">
+        <v>7</v>
+      </c>
+      <c r="I122">
+        <v>195</v>
+      </c>
+      <c r="J122" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>328</v>
+      </c>
+      <c r="E123">
+        <v>17</v>
+      </c>
+      <c r="F123">
+        <v>46</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>17</v>
+      </c>
+      <c r="I123">
+        <v>253</v>
+      </c>
+      <c r="J123" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>519</v>
+      </c>
+      <c r="E124">
+        <v>110</v>
+      </c>
+      <c r="F124">
+        <v>24</v>
+      </c>
+      <c r="G124">
+        <v>5</v>
+      </c>
+      <c r="H124">
+        <v>24</v>
+      </c>
+      <c r="I124">
+        <v>271</v>
+      </c>
+      <c r="J124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>250</v>
+      </c>
+      <c r="E125">
+        <v>92</v>
+      </c>
+      <c r="F125">
+        <v>31</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="H125">
+        <v>26</v>
+      </c>
+      <c r="I125">
+        <v>212</v>
+      </c>
+      <c r="J125" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>10</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>350</v>
+      </c>
+      <c r="E126">
+        <v>25</v>
+      </c>
+      <c r="F126">
+        <v>69</v>
+      </c>
+      <c r="G126">
+        <v>4</v>
+      </c>
+      <c r="H126">
+        <v>16</v>
+      </c>
+      <c r="I126">
+        <v>238</v>
+      </c>
+      <c r="J126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>538</v>
+      </c>
+      <c r="E127">
+        <v>69</v>
+      </c>
+      <c r="F127">
+        <v>42</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="H127">
+        <v>24</v>
+      </c>
+      <c r="I127">
+        <v>254</v>
+      </c>
+      <c r="J127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>11</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>294</v>
+      </c>
+      <c r="E128">
+        <v>165</v>
+      </c>
+      <c r="F128">
+        <v>57</v>
+      </c>
+      <c r="G128">
+        <v>9</v>
+      </c>
+      <c r="H128">
+        <v>6</v>
+      </c>
+      <c r="I128">
+        <v>231</v>
+      </c>
+      <c r="J128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>11</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>341</v>
+      </c>
+      <c r="E129">
+        <v>55</v>
+      </c>
+      <c r="F129">
+        <v>55</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>10</v>
+      </c>
+      <c r="I129">
+        <v>167</v>
+      </c>
+      <c r="J129" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>577</v>
+      </c>
+      <c r="E130">
+        <v>103</v>
+      </c>
+      <c r="F130">
+        <v>74</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>284</v>
+      </c>
+      <c r="J130" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>12</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>158</v>
+      </c>
+      <c r="E131">
+        <v>61</v>
+      </c>
+      <c r="F131">
+        <v>78</v>
+      </c>
+      <c r="G131">
+        <v>8</v>
+      </c>
+      <c r="H131">
+        <v>21</v>
+      </c>
+      <c r="I131">
+        <v>214</v>
+      </c>
+      <c r="J131" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>12</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>370</v>
+      </c>
+      <c r="E132">
+        <v>168</v>
+      </c>
+      <c r="F132">
+        <v>32</v>
+      </c>
+      <c r="G132">
+        <v>4</v>
+      </c>
+      <c r="H132">
+        <v>28</v>
+      </c>
+      <c r="I132">
+        <v>254</v>
+      </c>
+      <c r="J132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>12</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133">
+        <v>514</v>
+      </c>
+      <c r="E133">
+        <v>24</v>
+      </c>
+      <c r="F133">
+        <v>62</v>
+      </c>
+      <c r="G133">
+        <v>4</v>
+      </c>
+      <c r="H133">
+        <v>15</v>
+      </c>
+      <c r="I133">
+        <v>211</v>
+      </c>
+      <c r="J133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>13</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>213</v>
+      </c>
+      <c r="E134">
+        <v>138</v>
+      </c>
+      <c r="F134">
+        <v>61</v>
+      </c>
+      <c r="G134">
+        <v>6</v>
+      </c>
+      <c r="H134">
+        <v>4</v>
+      </c>
+      <c r="I134">
+        <v>293</v>
+      </c>
+      <c r="J134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>13</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>482</v>
+      </c>
+      <c r="E135">
+        <v>56</v>
+      </c>
+      <c r="F135">
+        <v>26</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>6</v>
+      </c>
+      <c r="I135">
+        <v>192</v>
+      </c>
+      <c r="J135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>561</v>
+      </c>
+      <c r="E136">
+        <v>123</v>
+      </c>
+      <c r="F136">
+        <v>70</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+      <c r="H136">
+        <v>30</v>
+      </c>
+      <c r="I136">
+        <v>300</v>
+      </c>
+      <c r="J136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>211</v>
+      </c>
+      <c r="E137">
+        <v>137</v>
+      </c>
+      <c r="F137">
+        <v>53</v>
+      </c>
+      <c r="G137">
+        <v>8</v>
+      </c>
+      <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137">
+        <v>223</v>
+      </c>
+      <c r="J137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>14</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>498</v>
+      </c>
+      <c r="E138">
+        <v>64</v>
+      </c>
+      <c r="F138">
+        <v>26</v>
+      </c>
+      <c r="G138">
+        <v>6</v>
+      </c>
+      <c r="H138">
+        <v>7</v>
+      </c>
+      <c r="I138">
+        <v>300</v>
+      </c>
+      <c r="J138" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>14</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>513</v>
+      </c>
+      <c r="E139">
+        <v>145</v>
+      </c>
+      <c r="F139">
+        <v>46</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139">
+        <v>15</v>
+      </c>
+      <c r="I139">
+        <v>186</v>
+      </c>
+      <c r="J139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>290</v>
+      </c>
+      <c r="E140">
+        <v>176</v>
+      </c>
+      <c r="F140">
+        <v>29</v>
+      </c>
+      <c r="G140">
+        <v>6</v>
+      </c>
+      <c r="H140">
+        <v>21</v>
+      </c>
+      <c r="I140">
+        <v>234</v>
+      </c>
+      <c r="J140" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>15</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>438</v>
+      </c>
+      <c r="E141">
+        <v>156</v>
+      </c>
+      <c r="F141">
+        <v>79</v>
+      </c>
+      <c r="G141">
+        <v>5</v>
+      </c>
+      <c r="H141">
+        <v>28</v>
+      </c>
+      <c r="I141">
+        <v>262</v>
+      </c>
+      <c r="J141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>15</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>502</v>
+      </c>
+      <c r="E142">
+        <v>122</v>
+      </c>
+      <c r="F142">
+        <v>68</v>
+      </c>
+      <c r="G142">
+        <v>4</v>
+      </c>
+      <c r="H142">
+        <v>16</v>
+      </c>
+      <c r="I142">
+        <v>271</v>
+      </c>
+      <c r="J142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>16</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>217</v>
+      </c>
+      <c r="E143">
+        <v>145</v>
+      </c>
+      <c r="F143">
+        <v>32</v>
+      </c>
+      <c r="G143">
+        <v>8</v>
+      </c>
+      <c r="H143">
+        <v>29</v>
+      </c>
+      <c r="I143">
+        <v>233</v>
+      </c>
+      <c r="J143" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>16</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>370</v>
+      </c>
+      <c r="E144">
+        <v>64</v>
+      </c>
+      <c r="F144">
+        <v>23</v>
+      </c>
+      <c r="G144">
+        <v>9</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>179</v>
+      </c>
+      <c r="J144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>16</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>564</v>
+      </c>
+      <c r="E145">
+        <v>24</v>
+      </c>
+      <c r="F145">
+        <v>61</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+      <c r="H145">
+        <v>27</v>
+      </c>
+      <c r="I145">
+        <v>179</v>
+      </c>
+      <c r="J145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>271</v>
+      </c>
+      <c r="E146">
+        <v>144</v>
+      </c>
+      <c r="F146">
+        <v>54</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+      <c r="H146">
+        <v>13</v>
+      </c>
+      <c r="I146">
+        <v>261</v>
+      </c>
+      <c r="J146" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>369</v>
+      </c>
+      <c r="E147">
+        <v>49</v>
+      </c>
+      <c r="F147">
+        <v>53</v>
+      </c>
+      <c r="G147">
+        <v>6</v>
+      </c>
+      <c r="H147">
+        <v>21</v>
+      </c>
+      <c r="I147">
+        <v>170</v>
+      </c>
+      <c r="J147" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>501</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148">
+        <v>34</v>
+      </c>
+      <c r="G148">
+        <v>2</v>
+      </c>
+      <c r="H148">
+        <v>12</v>
+      </c>
+      <c r="I148">
+        <v>200</v>
+      </c>
+      <c r="J148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>233</v>
+      </c>
+      <c r="E149">
+        <v>63</v>
+      </c>
+      <c r="F149">
+        <v>61</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149">
+        <v>218</v>
+      </c>
+      <c r="J149" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>451</v>
+      </c>
+      <c r="E150">
+        <v>49</v>
+      </c>
+      <c r="F150">
+        <v>64</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>153</v>
+      </c>
+      <c r="J150" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>584</v>
+      </c>
+      <c r="E151">
+        <v>35</v>
+      </c>
+      <c r="F151">
+        <v>67</v>
+      </c>
+      <c r="G151">
+        <v>9</v>
+      </c>
+      <c r="H151">
+        <v>8</v>
+      </c>
+      <c r="I151">
+        <v>209</v>
+      </c>
+      <c r="J151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>177</v>
+      </c>
+      <c r="E152">
+        <v>144</v>
+      </c>
+      <c r="F152">
+        <v>29</v>
+      </c>
+      <c r="G152">
+        <v>2</v>
+      </c>
+      <c r="H152">
+        <v>4</v>
+      </c>
+      <c r="I152">
+        <v>175</v>
+      </c>
+      <c r="J152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>360</v>
+      </c>
+      <c r="E153">
+        <v>126</v>
+      </c>
+      <c r="F153">
+        <v>42</v>
+      </c>
+      <c r="G153">
+        <v>2</v>
+      </c>
+      <c r="H153">
+        <v>27</v>
+      </c>
+      <c r="I153">
+        <v>247</v>
+      </c>
+      <c r="J153" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>522</v>
+      </c>
+      <c r="E154">
+        <v>12</v>
+      </c>
+      <c r="F154">
+        <v>61</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154">
+        <v>30</v>
+      </c>
+      <c r="I154">
+        <v>250</v>
+      </c>
+      <c r="J154" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>134</v>
+      </c>
+      <c r="E155">
+        <v>104</v>
+      </c>
+      <c r="F155">
+        <v>61</v>
+      </c>
+      <c r="G155">
+        <v>7</v>
+      </c>
+      <c r="H155">
+        <v>25</v>
+      </c>
+      <c r="I155">
+        <v>171</v>
+      </c>
+      <c r="J155" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>492</v>
+      </c>
+      <c r="E156">
+        <v>159</v>
+      </c>
+      <c r="F156">
+        <v>61</v>
+      </c>
+      <c r="G156">
+        <v>4</v>
+      </c>
+      <c r="H156">
+        <v>28</v>
+      </c>
+      <c r="I156">
+        <v>174</v>
+      </c>
+      <c r="J156" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>572</v>
+      </c>
+      <c r="E157">
+        <v>48</v>
+      </c>
+      <c r="F157">
+        <v>65</v>
+      </c>
+      <c r="G157">
+        <v>3</v>
+      </c>
+      <c r="H157">
+        <v>28</v>
+      </c>
+      <c r="I157">
+        <v>151</v>
+      </c>
+      <c r="J157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>156</v>
+      </c>
+      <c r="E158">
+        <v>113</v>
+      </c>
+      <c r="F158">
+        <v>22</v>
+      </c>
+      <c r="G158">
+        <v>8</v>
+      </c>
+      <c r="H158">
+        <v>28</v>
+      </c>
+      <c r="I158">
+        <v>175</v>
+      </c>
+      <c r="J158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>310</v>
+      </c>
+      <c r="E159">
+        <v>37</v>
+      </c>
+      <c r="F159">
+        <v>30</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>185</v>
+      </c>
+      <c r="J159" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>552</v>
+      </c>
+      <c r="E160">
+        <v>140</v>
+      </c>
+      <c r="F160">
+        <v>54</v>
+      </c>
+      <c r="G160">
+        <v>10</v>
+      </c>
+      <c r="H160">
+        <v>15</v>
+      </c>
+      <c r="I160">
+        <v>154</v>
+      </c>
+      <c r="J160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>140</v>
+      </c>
+      <c r="E161">
+        <v>136</v>
+      </c>
+      <c r="F161">
+        <v>80</v>
+      </c>
+      <c r="G161">
+        <v>2</v>
+      </c>
+      <c r="H161">
+        <v>4</v>
+      </c>
+      <c r="I161">
+        <v>206</v>
+      </c>
+      <c r="J161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>362</v>
+      </c>
+      <c r="E162">
+        <v>108</v>
+      </c>
+      <c r="F162">
+        <v>46</v>
+      </c>
+      <c r="G162">
+        <v>2</v>
+      </c>
+      <c r="H162">
+        <v>3</v>
+      </c>
+      <c r="I162">
+        <v>263</v>
+      </c>
+      <c r="J162" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>569</v>
+      </c>
+      <c r="E163">
+        <v>124</v>
+      </c>
+      <c r="F163">
+        <v>75</v>
+      </c>
+      <c r="G163">
+        <v>6</v>
+      </c>
+      <c r="H163">
+        <v>28</v>
+      </c>
+      <c r="I163">
+        <v>298</v>
+      </c>
+      <c r="J163" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>137</v>
+      </c>
+      <c r="E164">
+        <v>73</v>
+      </c>
+      <c r="F164">
+        <v>79</v>
+      </c>
+      <c r="G164">
+        <v>7</v>
+      </c>
+      <c r="H164">
+        <v>7</v>
+      </c>
+      <c r="I164">
+        <v>195</v>
+      </c>
+      <c r="J164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>328</v>
+      </c>
+      <c r="E165">
+        <v>17</v>
+      </c>
+      <c r="F165">
+        <v>46</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>17</v>
+      </c>
+      <c r="I165">
+        <v>253</v>
+      </c>
+      <c r="J165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>519</v>
+      </c>
+      <c r="E166">
+        <v>110</v>
+      </c>
+      <c r="F166">
+        <v>24</v>
+      </c>
+      <c r="G166">
+        <v>5</v>
+      </c>
+      <c r="H166">
+        <v>24</v>
+      </c>
+      <c r="I166">
+        <v>271</v>
+      </c>
+      <c r="J166" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>250</v>
+      </c>
+      <c r="E167">
+        <v>92</v>
+      </c>
+      <c r="F167">
+        <v>31</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+      <c r="H167">
+        <v>26</v>
+      </c>
+      <c r="I167">
+        <v>212</v>
+      </c>
+      <c r="J167" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>8</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>350</v>
+      </c>
+      <c r="E168">
+        <v>25</v>
+      </c>
+      <c r="F168">
+        <v>69</v>
+      </c>
+      <c r="G168">
+        <v>4</v>
+      </c>
+      <c r="H168">
+        <v>16</v>
+      </c>
+      <c r="I168">
+        <v>238</v>
+      </c>
+      <c r="J168" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>8</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>538</v>
+      </c>
+      <c r="E169">
+        <v>69</v>
+      </c>
+      <c r="F169">
+        <v>42</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169">
+        <v>24</v>
+      </c>
+      <c r="I169">
+        <v>254</v>
+      </c>
+      <c r="J169" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>9</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>294</v>
+      </c>
+      <c r="E170">
+        <v>165</v>
+      </c>
+      <c r="F170">
+        <v>57</v>
+      </c>
+      <c r="G170">
+        <v>9</v>
+      </c>
+      <c r="H170">
+        <v>6</v>
+      </c>
+      <c r="I170">
+        <v>231</v>
+      </c>
+      <c r="J170" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>9</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>341</v>
+      </c>
+      <c r="E171">
+        <v>55</v>
+      </c>
+      <c r="F171">
+        <v>55</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>10</v>
+      </c>
+      <c r="I171">
+        <v>167</v>
+      </c>
+      <c r="J171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>9</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>577</v>
+      </c>
+      <c r="E172">
+        <v>103</v>
+      </c>
+      <c r="F172">
+        <v>74</v>
+      </c>
+      <c r="G172">
+        <v>3</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>284</v>
+      </c>
+      <c r="J172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>10</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>158</v>
+      </c>
+      <c r="E173">
+        <v>61</v>
+      </c>
+      <c r="F173">
+        <v>78</v>
+      </c>
+      <c r="G173">
+        <v>8</v>
+      </c>
+      <c r="H173">
+        <v>21</v>
+      </c>
+      <c r="I173">
+        <v>214</v>
+      </c>
+      <c r="J173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>10</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174">
+        <v>370</v>
+      </c>
+      <c r="E174">
+        <v>168</v>
+      </c>
+      <c r="F174">
+        <v>32</v>
+      </c>
+      <c r="G174">
+        <v>4</v>
+      </c>
+      <c r="H174">
+        <v>28</v>
+      </c>
+      <c r="I174">
+        <v>254</v>
+      </c>
+      <c r="J174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>10</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>514</v>
+      </c>
+      <c r="E175">
+        <v>24</v>
+      </c>
+      <c r="F175">
+        <v>62</v>
+      </c>
+      <c r="G175">
+        <v>4</v>
+      </c>
+      <c r="H175">
+        <v>15</v>
+      </c>
+      <c r="I175">
+        <v>211</v>
+      </c>
+      <c r="J175" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>11</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>213</v>
+      </c>
+      <c r="E176">
+        <v>138</v>
+      </c>
+      <c r="F176">
+        <v>61</v>
+      </c>
+      <c r="G176">
+        <v>6</v>
+      </c>
+      <c r="H176">
+        <v>4</v>
+      </c>
+      <c r="I176">
+        <v>293</v>
+      </c>
+      <c r="J176" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>11</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>482</v>
+      </c>
+      <c r="E177">
+        <v>56</v>
+      </c>
+      <c r="F177">
+        <v>26</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>6</v>
+      </c>
+      <c r="I177">
+        <v>192</v>
+      </c>
+      <c r="J177" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>11</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>561</v>
+      </c>
+      <c r="E178">
+        <v>123</v>
+      </c>
+      <c r="F178">
+        <v>70</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178">
+        <v>30</v>
+      </c>
+      <c r="I178">
+        <v>300</v>
+      </c>
+      <c r="J178" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>12</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>211</v>
+      </c>
+      <c r="E179">
+        <v>137</v>
+      </c>
+      <c r="F179">
+        <v>53</v>
+      </c>
+      <c r="G179">
+        <v>8</v>
+      </c>
+      <c r="H179">
+        <v>3</v>
+      </c>
+      <c r="I179">
+        <v>223</v>
+      </c>
+      <c r="J179" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>12</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>498</v>
+      </c>
+      <c r="E180">
+        <v>64</v>
+      </c>
+      <c r="F180">
+        <v>26</v>
+      </c>
+      <c r="G180">
+        <v>6</v>
+      </c>
+      <c r="H180">
+        <v>7</v>
+      </c>
+      <c r="I180">
+        <v>300</v>
+      </c>
+      <c r="J180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>12</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>513</v>
+      </c>
+      <c r="E181">
+        <v>145</v>
+      </c>
+      <c r="F181">
+        <v>46</v>
+      </c>
+      <c r="G181">
+        <v>2</v>
+      </c>
+      <c r="H181">
+        <v>15</v>
+      </c>
+      <c r="I181">
+        <v>186</v>
+      </c>
+      <c r="J181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>13</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>290</v>
+      </c>
+      <c r="E182">
+        <v>176</v>
+      </c>
+      <c r="F182">
+        <v>29</v>
+      </c>
+      <c r="G182">
+        <v>6</v>
+      </c>
+      <c r="H182">
+        <v>21</v>
+      </c>
+      <c r="I182">
+        <v>234</v>
+      </c>
+      <c r="J182" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>13</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>438</v>
+      </c>
+      <c r="E183">
+        <v>156</v>
+      </c>
+      <c r="F183">
+        <v>79</v>
+      </c>
+      <c r="G183">
+        <v>5</v>
+      </c>
+      <c r="H183">
+        <v>28</v>
+      </c>
+      <c r="I183">
+        <v>262</v>
+      </c>
+      <c r="J183" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>13</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>502</v>
+      </c>
+      <c r="E184">
+        <v>122</v>
+      </c>
+      <c r="F184">
+        <v>68</v>
+      </c>
+      <c r="G184">
+        <v>4</v>
+      </c>
+      <c r="H184">
+        <v>16</v>
+      </c>
+      <c r="I184">
+        <v>271</v>
+      </c>
+      <c r="J184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>14</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>217</v>
+      </c>
+      <c r="E185">
+        <v>145</v>
+      </c>
+      <c r="F185">
+        <v>32</v>
+      </c>
+      <c r="G185">
+        <v>8</v>
+      </c>
+      <c r="H185">
+        <v>29</v>
+      </c>
+      <c r="I185">
+        <v>233</v>
+      </c>
+      <c r="J185" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>14</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>370</v>
+      </c>
+      <c r="E186">
+        <v>64</v>
+      </c>
+      <c r="F186">
+        <v>23</v>
+      </c>
+      <c r="G186">
+        <v>9</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>179</v>
+      </c>
+      <c r="J186" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>14</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>564</v>
+      </c>
+      <c r="E187">
+        <v>24</v>
+      </c>
+      <c r="F187">
+        <v>61</v>
+      </c>
+      <c r="G187">
+        <v>3</v>
+      </c>
+      <c r="H187">
+        <v>27</v>
+      </c>
+      <c r="I187">
+        <v>179</v>
+      </c>
+      <c r="J187" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>15</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>271</v>
+      </c>
+      <c r="E188">
+        <v>144</v>
+      </c>
+      <c r="F188">
+        <v>54</v>
+      </c>
+      <c r="G188">
+        <v>3</v>
+      </c>
+      <c r="H188">
+        <v>13</v>
+      </c>
+      <c r="I188">
+        <v>261</v>
+      </c>
+      <c r="J188" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>15</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>369</v>
+      </c>
+      <c r="E189">
+        <v>49</v>
+      </c>
+      <c r="F189">
+        <v>53</v>
+      </c>
+      <c r="G189">
+        <v>6</v>
+      </c>
+      <c r="H189">
+        <v>21</v>
+      </c>
+      <c r="I189">
+        <v>170</v>
+      </c>
+      <c r="J189" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>15</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>501</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+      <c r="F190">
+        <v>34</v>
+      </c>
+      <c r="G190">
+        <v>2</v>
+      </c>
+      <c r="H190">
+        <v>12</v>
+      </c>
+      <c r="I190">
+        <v>200</v>
+      </c>
+      <c r="J190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>16</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>233</v>
+      </c>
+      <c r="E191">
+        <v>63</v>
+      </c>
+      <c r="F191">
+        <v>61</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>3</v>
+      </c>
+      <c r="I191">
+        <v>218</v>
+      </c>
+      <c r="J191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>16</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>451</v>
+      </c>
+      <c r="E192">
+        <v>49</v>
+      </c>
+      <c r="F192">
+        <v>64</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>153</v>
+      </c>
+      <c r="J192" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>16</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>584</v>
+      </c>
+      <c r="E193">
+        <v>35</v>
+      </c>
+      <c r="F193">
+        <v>67</v>
+      </c>
+      <c r="G193">
+        <v>9</v>
+      </c>
+      <c r="H193">
+        <v>8</v>
+      </c>
+      <c r="I193">
+        <v>209</v>
+      </c>
+      <c r="J193" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>177</v>
+      </c>
+      <c r="E194">
+        <v>144</v>
+      </c>
+      <c r="F194">
+        <v>29</v>
+      </c>
+      <c r="G194">
+        <v>2</v>
+      </c>
+      <c r="H194">
+        <v>4</v>
+      </c>
+      <c r="I194">
+        <v>175</v>
+      </c>
+      <c r="J194" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>360</v>
+      </c>
+      <c r="E195">
+        <v>126</v>
+      </c>
+      <c r="F195">
+        <v>42</v>
+      </c>
+      <c r="G195">
+        <v>2</v>
+      </c>
+      <c r="H195">
+        <v>27</v>
+      </c>
+      <c r="I195">
+        <v>247</v>
+      </c>
+      <c r="J195" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196">
+        <v>522</v>
+      </c>
+      <c r="E196">
+        <v>12</v>
+      </c>
+      <c r="F196">
+        <v>61</v>
+      </c>
+      <c r="G196">
+        <v>3</v>
+      </c>
+      <c r="H196">
+        <v>30</v>
+      </c>
+      <c r="I196">
+        <v>250</v>
+      </c>
+      <c r="J196" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>134</v>
+      </c>
+      <c r="E197">
+        <v>104</v>
+      </c>
+      <c r="F197">
+        <v>61</v>
+      </c>
+      <c r="G197">
+        <v>7</v>
+      </c>
+      <c r="H197">
+        <v>25</v>
+      </c>
+      <c r="I197">
+        <v>171</v>
+      </c>
+      <c r="J197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>492</v>
+      </c>
+      <c r="E198">
+        <v>159</v>
+      </c>
+      <c r="F198">
+        <v>61</v>
+      </c>
+      <c r="G198">
+        <v>4</v>
+      </c>
+      <c r="H198">
+        <v>28</v>
+      </c>
+      <c r="I198">
+        <v>174</v>
+      </c>
+      <c r="J198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>572</v>
+      </c>
+      <c r="E199">
+        <v>48</v>
+      </c>
+      <c r="F199">
+        <v>65</v>
+      </c>
+      <c r="G199">
+        <v>3</v>
+      </c>
+      <c r="H199">
+        <v>28</v>
+      </c>
+      <c r="I199">
+        <v>151</v>
+      </c>
+      <c r="J199" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>156</v>
+      </c>
+      <c r="E200">
+        <v>113</v>
+      </c>
+      <c r="F200">
+        <v>22</v>
+      </c>
+      <c r="G200">
+        <v>8</v>
+      </c>
+      <c r="H200">
+        <v>28</v>
+      </c>
+      <c r="I200">
+        <v>175</v>
+      </c>
+      <c r="J200" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>310</v>
+      </c>
+      <c r="E201">
+        <v>37</v>
+      </c>
+      <c r="F201">
+        <v>30</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>185</v>
+      </c>
+      <c r="J201" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>552</v>
+      </c>
+      <c r="E202">
+        <v>140</v>
+      </c>
+      <c r="F202">
+        <v>54</v>
+      </c>
+      <c r="G202">
+        <v>10</v>
+      </c>
+      <c r="H202">
+        <v>15</v>
+      </c>
+      <c r="I202">
+        <v>154</v>
+      </c>
+      <c r="J202" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>140</v>
+      </c>
+      <c r="E203">
+        <v>136</v>
+      </c>
+      <c r="F203">
+        <v>80</v>
+      </c>
+      <c r="G203">
+        <v>2</v>
+      </c>
+      <c r="H203">
+        <v>4</v>
+      </c>
+      <c r="I203">
+        <v>206</v>
+      </c>
+      <c r="J203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>362</v>
+      </c>
+      <c r="E204">
+        <v>108</v>
+      </c>
+      <c r="F204">
+        <v>46</v>
+      </c>
+      <c r="G204">
+        <v>2</v>
+      </c>
+      <c r="H204">
+        <v>3</v>
+      </c>
+      <c r="I204">
+        <v>263</v>
+      </c>
+      <c r="J204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+      <c r="D205">
+        <v>569</v>
+      </c>
+      <c r="E205">
+        <v>124</v>
+      </c>
+      <c r="F205">
+        <v>75</v>
+      </c>
+      <c r="G205">
+        <v>6</v>
+      </c>
+      <c r="H205">
+        <v>28</v>
+      </c>
+      <c r="I205">
+        <v>298</v>
+      </c>
+      <c r="J205" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>137</v>
+      </c>
+      <c r="E206">
+        <v>73</v>
+      </c>
+      <c r="F206">
+        <v>79</v>
+      </c>
+      <c r="G206">
+        <v>7</v>
+      </c>
+      <c r="H206">
+        <v>7</v>
+      </c>
+      <c r="I206">
+        <v>195</v>
+      </c>
+      <c r="J206" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>5</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>328</v>
+      </c>
+      <c r="E207">
+        <v>17</v>
+      </c>
+      <c r="F207">
+        <v>46</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>17</v>
+      </c>
+      <c r="I207">
+        <v>253</v>
+      </c>
+      <c r="J207" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208">
+        <v>519</v>
+      </c>
+      <c r="E208">
+        <v>110</v>
+      </c>
+      <c r="F208">
+        <v>24</v>
+      </c>
+      <c r="G208">
+        <v>5</v>
+      </c>
+      <c r="H208">
+        <v>24</v>
+      </c>
+      <c r="I208">
+        <v>271</v>
+      </c>
+      <c r="J208" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>6</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>250</v>
+      </c>
+      <c r="E209">
+        <v>92</v>
+      </c>
+      <c r="F209">
+        <v>31</v>
+      </c>
+      <c r="G209">
+        <v>3</v>
+      </c>
+      <c r="H209">
+        <v>26</v>
+      </c>
+      <c r="I209">
+        <v>212</v>
+      </c>
+      <c r="J209" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>6</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <v>350</v>
+      </c>
+      <c r="E210">
+        <v>25</v>
+      </c>
+      <c r="F210">
+        <v>69</v>
+      </c>
+      <c r="G210">
+        <v>4</v>
+      </c>
+      <c r="H210">
+        <v>16</v>
+      </c>
+      <c r="I210">
+        <v>238</v>
+      </c>
+      <c r="J210" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>6</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+      <c r="D211">
+        <v>538</v>
+      </c>
+      <c r="E211">
+        <v>69</v>
+      </c>
+      <c r="F211">
+        <v>42</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+      <c r="H211">
+        <v>24</v>
+      </c>
+      <c r="I211">
+        <v>254</v>
+      </c>
+      <c r="J211" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>7</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>294</v>
+      </c>
+      <c r="E212">
+        <v>165</v>
+      </c>
+      <c r="F212">
+        <v>57</v>
+      </c>
+      <c r="G212">
+        <v>9</v>
+      </c>
+      <c r="H212">
+        <v>6</v>
+      </c>
+      <c r="I212">
+        <v>231</v>
+      </c>
+      <c r="J212" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>7</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>341</v>
+      </c>
+      <c r="E213">
+        <v>55</v>
+      </c>
+      <c r="F213">
+        <v>55</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>10</v>
+      </c>
+      <c r="I213">
+        <v>167</v>
+      </c>
+      <c r="J213" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>7</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+      <c r="D214">
+        <v>577</v>
+      </c>
+      <c r="E214">
+        <v>103</v>
+      </c>
+      <c r="F214">
+        <v>74</v>
+      </c>
+      <c r="G214">
+        <v>3</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>284</v>
+      </c>
+      <c r="J214" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>8</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>158</v>
+      </c>
+      <c r="E215">
+        <v>61</v>
+      </c>
+      <c r="F215">
+        <v>78</v>
+      </c>
+      <c r="G215">
+        <v>8</v>
+      </c>
+      <c r="H215">
+        <v>21</v>
+      </c>
+      <c r="I215">
+        <v>214</v>
+      </c>
+      <c r="J215" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>8</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>370</v>
+      </c>
+      <c r="E216">
+        <v>168</v>
+      </c>
+      <c r="F216">
+        <v>32</v>
+      </c>
+      <c r="G216">
+        <v>4</v>
+      </c>
+      <c r="H216">
+        <v>28</v>
+      </c>
+      <c r="I216">
+        <v>254</v>
+      </c>
+      <c r="J216" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>8</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
+      <c r="D217">
+        <v>514</v>
+      </c>
+      <c r="E217">
+        <v>24</v>
+      </c>
+      <c r="F217">
+        <v>62</v>
+      </c>
+      <c r="G217">
+        <v>4</v>
+      </c>
+      <c r="H217">
+        <v>15</v>
+      </c>
+      <c r="I217">
+        <v>211</v>
+      </c>
+      <c r="J217" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>9</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>213</v>
+      </c>
+      <c r="E218">
+        <v>138</v>
+      </c>
+      <c r="F218">
+        <v>61</v>
+      </c>
+      <c r="G218">
+        <v>6</v>
+      </c>
+      <c r="H218">
+        <v>4</v>
+      </c>
+      <c r="I218">
+        <v>293</v>
+      </c>
+      <c r="J218" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>9</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>482</v>
+      </c>
+      <c r="E219">
+        <v>56</v>
+      </c>
+      <c r="F219">
+        <v>26</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>6</v>
+      </c>
+      <c r="I219">
+        <v>192</v>
+      </c>
+      <c r="J219" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>9</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>561</v>
+      </c>
+      <c r="E220">
+        <v>123</v>
+      </c>
+      <c r="F220">
+        <v>70</v>
+      </c>
+      <c r="G220">
+        <v>3</v>
+      </c>
+      <c r="H220">
+        <v>30</v>
+      </c>
+      <c r="I220">
+        <v>300</v>
+      </c>
+      <c r="J220" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>10</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>211</v>
+      </c>
+      <c r="E221">
+        <v>137</v>
+      </c>
+      <c r="F221">
+        <v>53</v>
+      </c>
+      <c r="G221">
+        <v>8</v>
+      </c>
+      <c r="H221">
+        <v>3</v>
+      </c>
+      <c r="I221">
+        <v>223</v>
+      </c>
+      <c r="J221" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>10</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222">
+        <v>498</v>
+      </c>
+      <c r="E222">
+        <v>64</v>
+      </c>
+      <c r="F222">
+        <v>26</v>
+      </c>
+      <c r="G222">
+        <v>6</v>
+      </c>
+      <c r="H222">
+        <v>7</v>
+      </c>
+      <c r="I222">
+        <v>300</v>
+      </c>
+      <c r="J222" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>10</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+      <c r="D223">
+        <v>513</v>
+      </c>
+      <c r="E223">
+        <v>145</v>
+      </c>
+      <c r="F223">
+        <v>46</v>
+      </c>
+      <c r="G223">
+        <v>2</v>
+      </c>
+      <c r="H223">
+        <v>15</v>
+      </c>
+      <c r="I223">
+        <v>186</v>
+      </c>
+      <c r="J223" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>11</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>290</v>
+      </c>
+      <c r="E224">
+        <v>176</v>
+      </c>
+      <c r="F224">
+        <v>29</v>
+      </c>
+      <c r="G224">
+        <v>6</v>
+      </c>
+      <c r="H224">
+        <v>21</v>
+      </c>
+      <c r="I224">
+        <v>234</v>
+      </c>
+      <c r="J224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>11</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>438</v>
+      </c>
+      <c r="E225">
+        <v>156</v>
+      </c>
+      <c r="F225">
+        <v>79</v>
+      </c>
+      <c r="G225">
+        <v>5</v>
+      </c>
+      <c r="H225">
+        <v>28</v>
+      </c>
+      <c r="I225">
+        <v>262</v>
+      </c>
+      <c r="J225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>11</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+      <c r="D226">
+        <v>502</v>
+      </c>
+      <c r="E226">
+        <v>122</v>
+      </c>
+      <c r="F226">
+        <v>68</v>
+      </c>
+      <c r="G226">
+        <v>4</v>
+      </c>
+      <c r="H226">
+        <v>16</v>
+      </c>
+      <c r="I226">
+        <v>271</v>
+      </c>
+      <c r="J226" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>12</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>217</v>
+      </c>
+      <c r="E227">
+        <v>145</v>
+      </c>
+      <c r="F227">
+        <v>32</v>
+      </c>
+      <c r="G227">
+        <v>8</v>
+      </c>
+      <c r="H227">
+        <v>29</v>
+      </c>
+      <c r="I227">
+        <v>233</v>
+      </c>
+      <c r="J227" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>12</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>370</v>
+      </c>
+      <c r="E228">
+        <v>64</v>
+      </c>
+      <c r="F228">
+        <v>23</v>
+      </c>
+      <c r="G228">
+        <v>9</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>179</v>
+      </c>
+      <c r="J228" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>12</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+      <c r="D229">
+        <v>564</v>
+      </c>
+      <c r="E229">
+        <v>24</v>
+      </c>
+      <c r="F229">
+        <v>61</v>
+      </c>
+      <c r="G229">
+        <v>3</v>
+      </c>
+      <c r="H229">
+        <v>27</v>
+      </c>
+      <c r="I229">
+        <v>179</v>
+      </c>
+      <c r="J229" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>13</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>271</v>
+      </c>
+      <c r="E230">
+        <v>144</v>
+      </c>
+      <c r="F230">
+        <v>54</v>
+      </c>
+      <c r="G230">
+        <v>3</v>
+      </c>
+      <c r="H230">
+        <v>13</v>
+      </c>
+      <c r="I230">
+        <v>261</v>
+      </c>
+      <c r="J230" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>13</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>369</v>
+      </c>
+      <c r="E231">
+        <v>49</v>
+      </c>
+      <c r="F231">
+        <v>53</v>
+      </c>
+      <c r="G231">
+        <v>6</v>
+      </c>
+      <c r="H231">
+        <v>21</v>
+      </c>
+      <c r="I231">
+        <v>170</v>
+      </c>
+      <c r="J231" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>13</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <v>501</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+      <c r="F232">
+        <v>34</v>
+      </c>
+      <c r="G232">
+        <v>2</v>
+      </c>
+      <c r="H232">
+        <v>12</v>
+      </c>
+      <c r="I232">
+        <v>200</v>
+      </c>
+      <c r="J232" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>14</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>233</v>
+      </c>
+      <c r="E233">
+        <v>63</v>
+      </c>
+      <c r="F233">
+        <v>61</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>3</v>
+      </c>
+      <c r="I233">
+        <v>218</v>
+      </c>
+      <c r="J233" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>14</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+      <c r="D234">
+        <v>451</v>
+      </c>
+      <c r="E234">
+        <v>49</v>
+      </c>
+      <c r="F234">
+        <v>64</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234">
+        <v>153</v>
+      </c>
+      <c r="J234" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>14</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+      <c r="D235">
+        <v>584</v>
+      </c>
+      <c r="E235">
+        <v>35</v>
+      </c>
+      <c r="F235">
+        <v>67</v>
+      </c>
+      <c r="G235">
+        <v>9</v>
+      </c>
+      <c r="H235">
+        <v>8</v>
+      </c>
+      <c r="I235">
+        <v>209</v>
+      </c>
+      <c r="J235" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>15</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>177</v>
+      </c>
+      <c r="E236">
+        <v>144</v>
+      </c>
+      <c r="F236">
+        <v>29</v>
+      </c>
+      <c r="G236">
+        <v>2</v>
+      </c>
+      <c r="H236">
+        <v>4</v>
+      </c>
+      <c r="I236">
+        <v>175</v>
+      </c>
+      <c r="J236" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>15</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+      <c r="D237">
+        <v>360</v>
+      </c>
+      <c r="E237">
+        <v>126</v>
+      </c>
+      <c r="F237">
+        <v>42</v>
+      </c>
+      <c r="G237">
+        <v>2</v>
+      </c>
+      <c r="H237">
+        <v>27</v>
+      </c>
+      <c r="I237">
+        <v>247</v>
+      </c>
+      <c r="J237" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>15</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>522</v>
+      </c>
+      <c r="E238">
+        <v>12</v>
+      </c>
+      <c r="F238">
+        <v>61</v>
+      </c>
+      <c r="G238">
+        <v>3</v>
+      </c>
+      <c r="H238">
+        <v>30</v>
+      </c>
+      <c r="I238">
+        <v>250</v>
+      </c>
+      <c r="J238" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>16</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>134</v>
+      </c>
+      <c r="E239">
+        <v>104</v>
+      </c>
+      <c r="F239">
+        <v>61</v>
+      </c>
+      <c r="G239">
+        <v>7</v>
+      </c>
+      <c r="H239">
+        <v>25</v>
+      </c>
+      <c r="I239">
+        <v>171</v>
+      </c>
+      <c r="J239" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>16</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>492</v>
+      </c>
+      <c r="E240">
+        <v>159</v>
+      </c>
+      <c r="F240">
+        <v>61</v>
+      </c>
+      <c r="G240">
+        <v>4</v>
+      </c>
+      <c r="H240">
+        <v>28</v>
+      </c>
+      <c r="I240">
+        <v>174</v>
+      </c>
+      <c r="J240" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>16</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+      <c r="D241">
+        <v>572</v>
+      </c>
+      <c r="E241">
+        <v>48</v>
+      </c>
+      <c r="F241">
+        <v>65</v>
+      </c>
+      <c r="G241">
+        <v>3</v>
+      </c>
+      <c r="H241">
+        <v>28</v>
+      </c>
+      <c r="I241">
+        <v>151</v>
+      </c>
+      <c r="J241" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>156</v>
+      </c>
+      <c r="E242">
+        <v>113</v>
+      </c>
+      <c r="F242">
+        <v>22</v>
+      </c>
+      <c r="G242">
+        <v>8</v>
+      </c>
+      <c r="H242">
+        <v>28</v>
+      </c>
+      <c r="I242">
+        <v>175</v>
+      </c>
+      <c r="J242" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>310</v>
+      </c>
+      <c r="E243">
+        <v>37</v>
+      </c>
+      <c r="F243">
+        <v>30</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243">
+        <v>185</v>
+      </c>
+      <c r="J243" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+      <c r="D244">
+        <v>552</v>
+      </c>
+      <c r="E244">
+        <v>140</v>
+      </c>
+      <c r="F244">
+        <v>54</v>
+      </c>
+      <c r="G244">
+        <v>10</v>
+      </c>
+      <c r="H244">
+        <v>15</v>
+      </c>
+      <c r="I244">
+        <v>154</v>
+      </c>
+      <c r="J244" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>140</v>
+      </c>
+      <c r="E245">
+        <v>136</v>
+      </c>
+      <c r="F245">
+        <v>80</v>
+      </c>
+      <c r="G245">
+        <v>2</v>
+      </c>
+      <c r="H245">
+        <v>4</v>
+      </c>
+      <c r="I245">
+        <v>206</v>
+      </c>
+      <c r="J245" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>362</v>
+      </c>
+      <c r="E246">
+        <v>108</v>
+      </c>
+      <c r="F246">
+        <v>46</v>
+      </c>
+      <c r="G246">
+        <v>2</v>
+      </c>
+      <c r="H246">
+        <v>3</v>
+      </c>
+      <c r="I246">
+        <v>263</v>
+      </c>
+      <c r="J246" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+      <c r="D247">
+        <v>569</v>
+      </c>
+      <c r="E247">
+        <v>124</v>
+      </c>
+      <c r="F247">
+        <v>75</v>
+      </c>
+      <c r="G247">
+        <v>6</v>
+      </c>
+      <c r="H247">
+        <v>28</v>
+      </c>
+      <c r="I247">
+        <v>298</v>
+      </c>
+      <c r="J247" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>137</v>
+      </c>
+      <c r="E248">
+        <v>73</v>
+      </c>
+      <c r="F248">
+        <v>79</v>
+      </c>
+      <c r="G248">
+        <v>7</v>
+      </c>
+      <c r="H248">
+        <v>7</v>
+      </c>
+      <c r="I248">
+        <v>195</v>
+      </c>
+      <c r="J248" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>2</v>
+      </c>
+      <c r="D249">
+        <v>328</v>
+      </c>
+      <c r="E249">
+        <v>17</v>
+      </c>
+      <c r="F249">
+        <v>46</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>17</v>
+      </c>
+      <c r="I249">
+        <v>253</v>
+      </c>
+      <c r="J249" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+      <c r="D250">
+        <v>519</v>
+      </c>
+      <c r="E250">
+        <v>110</v>
+      </c>
+      <c r="F250">
+        <v>24</v>
+      </c>
+      <c r="G250">
+        <v>5</v>
+      </c>
+      <c r="H250">
+        <v>24</v>
+      </c>
+      <c r="I250">
+        <v>271</v>
+      </c>
+      <c r="J250" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>4</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>250</v>
+      </c>
+      <c r="E251">
+        <v>92</v>
+      </c>
+      <c r="F251">
+        <v>31</v>
+      </c>
+      <c r="G251">
+        <v>3</v>
+      </c>
+      <c r="H251">
+        <v>26</v>
+      </c>
+      <c r="I251">
+        <v>212</v>
+      </c>
+      <c r="J251" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>4</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+      <c r="D252">
+        <v>350</v>
+      </c>
+      <c r="E252">
+        <v>25</v>
+      </c>
+      <c r="F252">
+        <v>69</v>
+      </c>
+      <c r="G252">
+        <v>4</v>
+      </c>
+      <c r="H252">
+        <v>16</v>
+      </c>
+      <c r="I252">
+        <v>238</v>
+      </c>
+      <c r="J252" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>4</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+      <c r="D253">
+        <v>538</v>
+      </c>
+      <c r="E253">
+        <v>69</v>
+      </c>
+      <c r="F253">
+        <v>42</v>
+      </c>
+      <c r="G253">
+        <v>3</v>
+      </c>
+      <c r="H253">
+        <v>24</v>
+      </c>
+      <c r="I253">
+        <v>254</v>
+      </c>
+      <c r="J253" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
